--- a/biology/Botanique/Pierrette_Trichet/Pierrette_Trichet.xlsx
+++ b/biology/Botanique/Pierrette_Trichet/Pierrette_Trichet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierrette Trichet, née le 15 février 1953 à Sainte-Christie-d'Armagnac dans le Gers, est une viticultrice française, biochimiste de formation.  Elle est la première femme maître de chai à Cognac, au sein de la maison Rémy Martin[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierrette Trichet, née le 15 février 1953 à Sainte-Christie-d'Armagnac dans le Gers, est une viticultrice française, biochimiste de formation.  Elle est la première femme maître de chai à Cognac, au sein de la maison Rémy Martin.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierrette Trichet a d'abord été chercheuse dans le laboratoire de la maison Rémy Martin. Personne n'imaginait qu'elle pourrait percer dans un domaine typiquement masculin, celui des maîtres de chai. Pourtant, grâce à « un nez exceptionnel »[2], elle y est parvenue[2] en 2003.  Elle prit sa retraite en 2014, et Baptiste Loiseau lui succéda au sein de la maison Remy-Martin[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierrette Trichet a d'abord été chercheuse dans le laboratoire de la maison Rémy Martin. Personne n'imaginait qu'elle pourrait percer dans un domaine typiquement masculin, celui des maîtres de chai. Pourtant, grâce à « un nez exceptionnel », elle y est parvenue en 2003.  Elle prit sa retraite en 2014, et Baptiste Loiseau lui succéda au sein de la maison Remy-Martin.
 </t>
         </is>
       </c>
